--- a/genres/criminal/Criminal.xlsx
+++ b/genres/criminal/Criminal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B6E999-75CF-4061-B195-B9133647C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E15DC-F2B6-4355-83CF-07CBF876BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="490">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -1447,12 +1447,33 @@
     <t>Я видел Дьявола (Ang-ma-reul bo-at-da, 2010)</t>
   </si>
   <si>
+    <t>MaximumCoool</t>
+  </si>
+  <si>
+    <t>Револьвер (Revolver, 2005)</t>
+  </si>
+  <si>
+    <t>Rertern</t>
+  </si>
+  <si>
+    <t>Ящик Пандоры (Die Buchse der Pandora, 1929)</t>
+  </si>
+  <si>
+    <t>Сука (La chienne, 1931)</t>
+  </si>
+  <si>
+    <t>2.24.2024 2:56:46</t>
+  </si>
+  <si>
     <t>Huntelaar19</t>
   </si>
   <si>
     <t xml:space="preserve">Бунтари неонового бога (Qing shao nian nuo zha, 1992) </t>
   </si>
   <si>
+    <t xml:space="preserve">Игрок (The Player, 1992) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Поколение игры «Doom» (The Doom Generation, 1995) </t>
   </si>
   <si>
@@ -1465,52 +1486,10 @@
     <t xml:space="preserve">Дикие сердцем (Wild at Heart, 1990) </t>
   </si>
   <si>
-    <t xml:space="preserve">Игрок (The Player, 1992) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ариэль (Ariel, 1988) </t>
   </si>
   <si>
     <t xml:space="preserve">Тельма и Луиза (Thelma &amp; Louise, 1991) </t>
-  </si>
-  <si>
-    <t>2/24/2024 1:01:11</t>
-  </si>
-  <si>
-    <t>MaximumCoool</t>
-  </si>
-  <si>
-    <t>Лицо со Шрамом (Scarface, 1983)</t>
-  </si>
-  <si>
-    <t>Криминальное Чтиво (Pulp Fiction, 1994)</t>
-  </si>
-  <si>
-    <t>Город Грехов (Sin City, 2005)</t>
-  </si>
-  <si>
-    <t>На Гребне Волны (Point Break, 1991)</t>
-  </si>
-  <si>
-    <t>Большой Куш (Snatch, 2000)</t>
-  </si>
-  <si>
-    <t>Карты, Деньги, Два Ствола (Lock, Stock and Two Smoking Barrels, 1998)</t>
-  </si>
-  <si>
-    <t>Револьвер (Revolver, 2005)</t>
-  </si>
-  <si>
-    <t>2/24/2024 11:23:48</t>
-  </si>
-  <si>
-    <t>Rertern</t>
-  </si>
-  <si>
-    <t>Ящик Пандоры (Die Buchse der Pandora, 1929)</t>
-  </si>
-  <si>
-    <t>Сука (La chienne, 1931)</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1531,16 +1510,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1564,12 +1533,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1788,11 +1756,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4456,7 +4424,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45343.208839791667</v>
       </c>
@@ -4539,7 +4507,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45343.215687256947</v>
       </c>
@@ -4622,7 +4590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45343.235639409722</v>
       </c>
@@ -4705,7 +4673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45343.260187291671</v>
       </c>
@@ -4788,7 +4756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45343.26725744213</v>
       </c>
@@ -4871,7 +4839,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45343.298869085644</v>
       </c>
@@ -4954,7 +4922,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45345.08877988426</v>
       </c>
@@ -5037,7 +5005,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45345.096228495371</v>
       </c>
@@ -5120,7 +5088,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45345.102559699073</v>
       </c>
@@ -5203,7 +5171,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45345.111945659723</v>
       </c>
@@ -5286,12 +5254,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>45346.122754629629</v>
+    <row r="43" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>44</v>
@@ -5305,26 +5273,26 @@
       <c r="F43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>481</v>
+      <c r="G43" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>480</v>
+      <c r="J43" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>31</v>
@@ -5341,8 +5309,8 @@
       <c r="R43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S43" s="4" t="s">
-        <v>482</v>
+      <c r="S43" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>103</v>
@@ -5353,8 +5321,8 @@
       <c r="V43" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="W43" t="s">
-        <v>483</v>
+      <c r="W43" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>143</v>
@@ -5368,149 +5336,147 @@
       <c r="AA43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>484</v>
-      </c>
-      <c r="B44" t="s">
-        <v>485</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="44" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45346.042490277774</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D44" t="s">
-        <v>486</v>
-      </c>
-      <c r="E44" t="s">
-        <v>487</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M44" t="s">
-        <v>488</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O44" t="s">
-        <v>489</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="O44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="S44" t="s">
-        <v>490</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="S44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V44" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="X44" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y44" t="s">
+      <c r="X44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Z44" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA44" t="s">
+      <c r="Z44" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA44" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>493</v>
-      </c>
-      <c r="B45" t="s">
-        <v>494</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="45" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45346.474870601851</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D45" t="s">
-        <v>495</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G45" t="s">
-        <v>496</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="3" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>